--- a/Data/Output/ReporteKeyWords.xlsx
+++ b/Data/Output/ReporteKeyWords.xlsx
@@ -168,18 +168,18 @@
     <x:t>https://platzi.com/cursos/java-avanzado/</x:t>
   </x:si>
   <x:si>
+    <x:t>Curso Básico de Programación Orientada a Objetos con JavaScript</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/javascript-poo/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Cómo Prepararte Profesionalmente para el Futuro</x:t>
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/futuro-profesional/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso Básico de Programación Orientada a Objetos con JavaScript</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/javascript-poo/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Curso de Manipulación del DOM</x:t>
   </x:si>
   <x:si>
@@ -198,6 +198,12 @@
     <x:t>https://platzi.com/cursos/datos-php/</x:t>
   </x:si>
   <x:si>
+    <x:t>Curso de Manipulación de Arrays en JavaScript</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/arrays/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curso de Backend con NestJS</x:t>
   </x:si>
   <x:si>
@@ -210,12 +216,6 @@
     <x:t>https://platzi.com/cursos/react-avanzado/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Manipulación de Arrays en JavaScript</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/arrays/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Curso de Java Spring</x:t>
   </x:si>
   <x:si>
@@ -234,36 +234,36 @@
     <x:t>https://platzi.com/cursos/testing-java/</x:t>
   </x:si>
   <x:si>
+    <x:t>Curso de Introducción a C#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/introduccion-csharp/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curso de Inglés para Uso Cotidiano</x:t>
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/ingles-uso-cotidiano/</x:t>
   </x:si>
   <x:si>
+    <x:t>Curso de Estructuras de Datos con JavaScript</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/estructuras-datos/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curso Práctico de C++</x:t>
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/c-plus-plus-practico/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Estructuras de Datos con JavaScript</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/estructuras-datos/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Curso de Frameworks y Librerías de JavaScript</x:t>
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/frameworks-javascript/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Introducción a C#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/introduccion-csharp/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Curso de Content Marketing Avanzado</x:t>
   </x:si>
   <x:si>
@@ -288,7 +288,7 @@
     <x:t>https://platzi.com/cursos/ilustracion-illustrator/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Inglés con Historias en Audio: Misterios sin Resolver</x:t>
+    <x:t>Curso de Inglés con Historias en Audio: Misterios sin Resolver.</x:t>
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/misterio/</x:t>
@@ -354,16 +354,22 @@
     <x:t>https://platzi.com/cursos/svelte/</x:t>
   </x:si>
   <x:si>
+    <x:t>Curso de Backend con Node.js: Base de Datos con PostgreSQL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/backend-nodejs-postgres/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Taller de Creación de Router para Single Page App con JavaScript</x:t>
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/singlepage-app/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Backend con Node.js: Base de Datos con PostgreSQL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/backend-nodejs-postgres/</x:t>
+    <x:t>Curso de Inglés Avanzado: Pronunciación</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/pronunciacion-avanzado/</x:t>
   </x:si>
   <x:si>
     <x:t>Curso de Redux por Bedu</x:t>
@@ -372,12 +378,6 @@
     <x:t>https://platzi.com/cursos/redux/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Inglés Avanzado: Pronunciación</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/pronunciacion-avanzado/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Curso Básico de Web Components con JavaScript</x:t>
   </x:si>
   <x:si>
@@ -402,6 +402,12 @@
     <x:t>https://platzi.com/cursos/php-avanzado/</x:t>
   </x:si>
   <x:si>
+    <x:t>Curso de Fundamentos de TypeScript</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/typescript/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curso Avanzado de Redes de Internet</x:t>
   </x:si>
   <x:si>
@@ -432,12 +438,6 @@
     <x:t>https://platzi.com/cursos/funcional-js/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Fundamentos de TypeScript</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/typescript/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Curso de Illustrator Avanzado</x:t>
   </x:si>
   <x:si>
@@ -456,34 +456,40 @@
     <x:t>https://platzi.com/cursos/nodejs-iot/</x:t>
   </x:si>
   <x:si>
+    <x:t>Curso Práctico de React Native: Manejo de Listas y Consumo de APIs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/react-native-listas-apis/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curso de Integración de Backend y Frontend 2020</x:t>
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/bff/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso Práctico de React Native: Manejo de Listas y Consumo de APIs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/react-native-listas-apis/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Curso de Progressive Web Apps con React.js</x:t>
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/pwa-react-js/</x:t>
   </x:si>
   <x:si>
+    <x:t>Curso de Inglés Avanzado: Frases Verbales y Expresiones Idiomáticas de Negocios</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/frases-expresiones-negocios/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curso de Introducción a la Producción Audiovisual</x:t>
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/produccion-audiovisual-cinematografica/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Inglés Avanzado: Frases Verbales y Expresiones Idiomáticas de Negocios</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/frases-expresiones-negocios/</x:t>
+    <x:t>Curso de TypeScript: Tipos Avanzados y Funciones</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/typescript-tipos-avanzados/</x:t>
   </x:si>
   <x:si>
     <x:t>Curso Avanzado de Creación de RPGs con Unity</x:t>
@@ -510,6 +516,12 @@
     <x:t>https://platzi.com/cursos/habilidades-comunicacion/</x:t>
   </x:si>
   <x:si>
+    <x:t>Curso de Fundamentos de Java Spring Boot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/spring-boot/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curso de Inglés Avanzado: Reducciones y Conectores</x:t>
   </x:si>
   <x:si>
@@ -522,10 +534,16 @@
     <x:t>https://platzi.com/cursos/recursos-linguisticos/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Fundamentos de Java Spring Boot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/spring-boot/</x:t>
+    <x:t>Curso de Lenguaje y Notación Matemática</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/notacion-matematica/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Curso de Colorización con DaVinci Resolve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/colorizacion-davinci/</x:t>
   </x:si>
   <x:si>
     <x:t>Curso Avanzado de Realidad Aumentada</x:t>
@@ -534,22 +552,10 @@
     <x:t>https://platzi.com/cursos/avanzado-aumentada/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Colorización con DaVinci Resolve</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/colorizacion-davinci/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Curso de Lenguaje y Notación Matemática</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/notacion-matematica/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Curso de TypeScript: Tipos Avanzados y Funciones</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/typescript-tipos-avanzados/</x:t>
+    <x:t>Curso de Java SE Persistencia de Datos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/java-persistencia/</x:t>
   </x:si>
   <x:si>
     <x:t>Curso Avanzado de Vue.js</x:t>
@@ -558,18 +564,18 @@
     <x:t>https://platzi.com/cursos/avanzado-vue/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Java SE Persistencia de Datos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/java-persistencia/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Curso de Facebook Ads Avanzado</x:t>
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/fb-ads-avanzado/</x:t>
   </x:si>
   <x:si>
+    <x:t>Curso de Complejidad Algorítmica con JavaScript</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/complejidad-js/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curso de Game Maker Studio 2: Introducción a Creación de Videojuegos</x:t>
   </x:si>
   <x:si>
@@ -582,12 +588,6 @@
     <x:t>https://platzi.com/cursos/escritura-avanzada/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Complejidad Algorítmica con JavaScript</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/complejidad-js/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Curso de Ecuaciones Diferenciales</x:t>
   </x:si>
   <x:si>
@@ -721,6 +721,12 @@
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/api-practico/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Curso Profesional de Consumo de API REST con JavaScript</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/api-profesional/</x:t>
   </x:si>
   <x:si>
     <x:t>JavaScript
@@ -1012,13 +1018,6 @@
     <x:t>https://platzi.com/clases/2242-webpack/36198-babel-loader-para-javascript/</x:t>
   </x:si>
   <x:si>
-    <x:t>Declarative rendering con JavaScript
-Curso de Vue.js 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/clases/2167-vuejs/35420-declarative-rendering-con-javascript/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Curso de Analista de Negocios en RPA</x:t>
   </x:si>
   <x:si>
@@ -1555,18 +1554,18 @@
     <x:t>https://platzi.com/cursos/preguntas-respuestas/</x:t>
   </x:si>
   <x:si>
+    <x:t>Curso de Inglés Básico A2: Horas y Solicitudes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/horas-solicitudes/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curso de Inglés Básico: Descripciones y Comparativos</x:t>
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/ingles-basico-descripciones-comparativos/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Inglés Básico A2: Horas y Solicitudes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/horas-solicitudes/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Curso de Inglés Básico A2: Adverbios y Sustantivos</x:t>
   </x:si>
   <x:si>
@@ -1597,18 +1596,18 @@
     <x:t>https://platzi.com/cursos/creatividad-financiera/</x:t>
   </x:si>
   <x:si>
+    <x:t>Curso de Inglés Básico A2: Superlativos y Adverbios</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/superlativos-adverbios/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curso de Inglés Práctico: Pronunciación</x:t>
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/ingles-practico-pronuncia/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Inglés Básico A2: Superlativos y Adverbios</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/superlativos-adverbios/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Curso de Inglés Básico: Escritura</x:t>
   </x:si>
   <x:si>
@@ -1657,6 +1656,12 @@
     <x:t>https://platzi.com/cursos/verbo-to-be/</x:t>
   </x:si>
   <x:si>
+    <x:t>Curso de Inglés Básico A2: Experiencias Pasadas e Intenciones Futuras</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/experiencias-pasadas/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curso de Inglés Intermedio: Pronunciación</x:t>
   </x:si>
   <x:si>
@@ -1669,12 +1674,6 @@
     <x:t>https://platzi.com/cursos/gramatica-b2/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Inglés Básico A2: Experiencias Pasadas e Intenciones Futuras</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/experiencias-pasadas/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Curso de Inglés Intermedio Alto: Conversación</x:t>
   </x:si>
   <x:si>
@@ -1759,16 +1758,22 @@
     <x:t>https://platzi.com/cursos/solicitudes/</x:t>
   </x:si>
   <x:si>
+    <x:t>Curso de Inglés Intermedio B1: Verbos Infinitivos y Transitivos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/infinitivos-transitivos/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curso de Fundamentos del Diseño Editorial</x:t>
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/diseno-editorial/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Inglés Intermedio B1: Verbos Infinitivos y Transitivos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/infinitivos-transitivos/</x:t>
+    <x:t>Curso de Inglés Intermedio B2: Intenciones y Comparaciones Complejas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/intenciones-comparaciones/</x:t>
   </x:si>
   <x:si>
     <x:t>Curso de Inglés Intermedio B1: Comparativos Paralelos y Expresiones en el Pasado y Futuro</x:t>
@@ -1777,30 +1782,24 @@
     <x:t>https://platzi.com/cursos/comparativos-paralelos/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Inglés Intermedio B2: Intenciones y Comparaciones Complejas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/intenciones-comparaciones/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Curso de Inglés Intermedio Alto B2: Condicionales y Situaciones Hipotéticas</x:t>
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/condicionales-situaciones-hipoteticas/</x:t>
   </x:si>
   <x:si>
+    <x:t>Curso de Inglés Intermedio B1: Verbos Causativos y Voz Pasiva</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/verbos-causativos/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curso de Cómo Hacer un Pitch en Inglés</x:t>
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/pitch-ingles/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Inglés Intermedio B1: Verbos Causativos y Voz Pasiva</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/verbos-causativos/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Curso de Inglés para Marketing</x:t>
   </x:si>
   <x:si>
@@ -1819,16 +1818,28 @@
     <x:t>https://platzi.com/cursos/ingles-negocios/</x:t>
   </x:si>
   <x:si>
+    <x:t>Curso de Inglés Intermedio: Vocabulario y Expresiones</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/intermedio-vocabulario-expresiones/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Curso de Inglés para Finanzas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/ingles-finanzas/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Taller de Inglés Intermedio B1: Verbos Causativos y Voz Pasiva</x:t>
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/taller-verbos-causativos/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Inglés para Finanzas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/ingles-finanzas/</x:t>
+    <x:t>Curso de Preparación para IELTS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/preparacion-ielts/</x:t>
   </x:si>
   <x:si>
     <x:t>Curso de Inglés Intermedio B1: Estructuras Paralelas y Preguntas Negativas</x:t>
@@ -1837,18 +1848,6 @@
     <x:t>https://platzi.com/cursos/estructuras-paralelas/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Preparación para IELTS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/preparacion-ielts/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Curso de Inglés Intermedio: Vocabulario y Expresiones</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/intermedio-vocabulario-expresiones/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Curso de Estrategia de Marketing y Monetización en Videojuegos</x:t>
   </x:si>
   <x:si>
@@ -1879,16 +1878,28 @@
     <x:t>https://platzi.com/cursos/pasado-perfecto-pasivo-adverbiales/</x:t>
   </x:si>
   <x:si>
+    <x:t>Curso de Inglés Básico: Vocabulario y Expresiones</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/basico-vocabulario-expresiones/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Taller de inglés Básico A2: Describiendo mi casa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/basico-describiendo-casa/</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curso de Inglés Avanzado C1: Argumentación y Discusiones Coloquiales</x:t>
   </x:si>
   <x:si>
     <x:t>https://platzi.com/cursos/ingles-avanzado-argumentacion/</x:t>
   </x:si>
   <x:si>
-    <x:t>Curso de Inglés Básico: Vocabulario y Expresiones</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/cursos/basico-vocabulario-expresiones/</x:t>
+    <x:t>Curso de Inglés Intermedio: Escritura</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/cursos/intermedio-escritura/</x:t>
   </x:si>
   <x:si>
     <x:t>Curso de Inglés Avanzado C1: Presentaciones y Expresiones Idiomáticas</x:t>
@@ -1936,13 +1947,6 @@
     <x:t>https://platzi.com/clases/2633-estrategias-ingles/45933-por-que-aprender-ingles/</x:t>
   </x:si>
   <x:si>
-    <x:t>¿Cómo puedo mejorar mi inglés?
-Taller de Inglés para Principiantes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/clases/2005-taller-principiantes/32773-como-puedo-mejorar-mi-ingles/</x:t>
-  </x:si>
-  <x:si>
     <x:t>Cómo puedo mejorar mi inglés
 Curso de Inglés para Developers</x:t>
   </x:si>
@@ -2027,6 +2031,13 @@
     <x:t>https://platzi.com/clases/1098-ingenieria/6553-que-es-la-memoria-ram-y-como-funcionan-los-discos-/</x:t>
   </x:si>
   <x:si>
+    <x:t>(NOT) Here / There
+Curso de Inglés Básico A2: Horas y Solicitudes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://platzi.com/clases/2396-horas-solicitudes/39705-not-here-there/</x:t>
+  </x:si>
+  <x:si>
     <x:t>¿Qué más sigue?
 Curso de Productividad</x:t>
   </x:si>
@@ -2039,20 +2050,6 @@
   </x:si>
   <x:si>
     <x:t>https://platzi.com/clases/1923-modelo-3dmaya/29797-que-son-y-para-que-sirven-las-uvs/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>¿Qué es End-to-End Testing?
-Curso de End to End Testing con Cypress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/clases/1411-testing-cypress/14608-que-es-end-to-end-testing/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Qué es KPI
-Glosario de Términos de Marketing Digital</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://platzi.com/clases/2314-terminos-marketing-digital/38582-que-es-kpi/</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3407,10 +3404,10 @@
     </x:row>
     <x:row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A17" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3439,10 +3436,10 @@
     </x:row>
     <x:row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A21" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3455,10 +3452,10 @@
     </x:row>
     <x:row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A23" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3527,10 +3524,10 @@
     </x:row>
     <x:row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A32" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3551,10 +3548,10 @@
     </x:row>
     <x:row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A35" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3591,10 +3588,10 @@
     </x:row>
     <x:row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A40" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3607,10 +3604,10 @@
     </x:row>
     <x:row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A42" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3831,18 +3828,18 @@
     </x:row>
     <x:row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A70" s="2" t="s">
-        <x:v>249</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B70" s="2" t="s">
-        <x:v>250</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A71" s="2" t="s">
-        <x:v>253</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B71" s="2" t="s">
-        <x:v>254</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3991,18 +3988,18 @@
     </x:row>
     <x:row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A90" s="2" t="s">
-        <x:v>257</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B90" s="2" t="s">
-        <x:v>258</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A91" s="2" t="s">
-        <x:v>291</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B91" s="2" t="s">
-        <x:v>292</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -4026,15 +4023,15 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="B94" s="2" t="s">
-        <x:v>296</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A95" s="2" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="B95" s="2" t="s">
         <x:v>298</x:v>
-      </x:c>
-      <x:c r="B95" s="2" t="s">
-        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -4903,10 +4900,10 @@
     </x:row>
     <x:row r="27" spans="1:2">
       <x:c r="A27" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:2">
@@ -5007,10 +5004,10 @@
     </x:row>
     <x:row r="40" spans="1:2">
       <x:c r="A40" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:2">
@@ -5079,26 +5076,26 @@
     </x:row>
     <x:row r="49" spans="1:2">
       <x:c r="A49" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:2">
       <x:c r="A50" s="2" t="s">
-        <x:v>534</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>535</x:v>
+        <x:v>537</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:2">
       <x:c r="A51" s="2" t="s">
-        <x:v>536</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
-        <x:v>537</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:2">
@@ -5159,50 +5156,50 @@
     </x:row>
     <x:row r="59" spans="1:2">
       <x:c r="A59" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="B59" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>553</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:2">
       <x:c r="A60" s="2" t="s">
-        <x:v>552</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B60" s="2" t="s">
-        <x:v>553</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:2">
       <x:c r="A61" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B61" s="2" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:2">
       <x:c r="A62" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B62" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:2">
       <x:c r="A63" s="2" t="s">
-        <x:v>554</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B63" s="2" t="s">
-        <x:v>555</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:2">
       <x:c r="A64" s="2" t="s">
-        <x:v>158</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="B64" s="2" t="s">
-        <x:v>159</x:v>
+        <x:v>555</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:2">
@@ -5223,18 +5220,18 @@
     </x:row>
     <x:row r="67" spans="1:2">
       <x:c r="A67" s="2" t="s">
-        <x:v>560</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B67" s="2" t="s">
-        <x:v>561</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:2">
       <x:c r="A68" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="B68" s="2" t="s">
-        <x:v>185</x:v>
+        <x:v>561</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:2">
